--- a/biology/Histoire de la zoologie et de la botanique/Samuel_Garman/Samuel_Garman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Samuel_Garman/Samuel_Garman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Walton Garman (ou Garmann) est un zoologiste américain, né le 5 juin 1843 dans le comté d'Indiana en Pennsylvanie et mort le 30 septembre 1927 à Plymouth (Massachusetts).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Garman quitte la demeure familiale très tôt et mène une existence aventureuse : il travaille pour l’Union Pacific Railroad en combattant les Indiens et en chassant pour approvisionner les cantines. En 1868, il se joint à l’expédition conduite par John Wesley Powell (1834-1902) dans les montagnes du Colorado. Garman suit Powell lorsque celui-ci enseigne à l’université d’État de l’Illinois et où il obtiendra un diplôme en 1872. Il correspond régulièrement avec le grand naturaliste Edward Drinker Cope (1840-1897). Il l’accompagne d’ailleurs durant l’été de 1872 pour récolter des fossiles dans le Wyoming mais il est vite renvoyé car il exige d’être payé.
 C’est alors que la chance sourit à Garman. Il se rend à San Francisco et rencontre Louis Agassiz (1807-1873), alors sur le point de partir en mission d’exploration dans le Détroit de Magellan à bord du Hassler. Agassiz, percevant les capacités de Garman l’invite à se joindre à lui comme son élève.
@@ -547,7 +561,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles.</t>
         </is>
